--- a/Stage/Fichier_Entreprise_modele.xlsx
+++ b/Stage/Fichier_Entreprise_modele.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyberdev\Desktop\formationADRAR\Stage\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Fichier entreprises" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Feuil1" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Fichier entreprises" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Fichier entreprises'!$A$1:$N$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Fichier entreprises'!$A$1:$X$61</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,183 +28,183 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="90">
   <si>
     <t xml:space="preserve">Nom entreprise </t>
   </si>
   <si>
-    <t xml:space="preserve">Adresse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code postal</t>
+    <t>Adresse</t>
+  </si>
+  <si>
+    <t>Code postal</t>
   </si>
   <si>
     <t xml:space="preserve">Ville </t>
   </si>
   <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tél</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date RDV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réponse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commentaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recherche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cap Gemini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109 avenue du Général Eisenhower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toulouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">à appeler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">winzana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact@winzana.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">candidater sur le site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">makina corpus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52 Rue Jacques Babinet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact@makina-corpus.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non, que bac+5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">à appeler/ à voir, offre sur aideostage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">web atrio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 rue Marcel Daret</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blagnac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iwit systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 rue de Metz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact@iwit-systems.fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05 61 47 70 47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">à appeler/ envoyer mail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Offre stage (indeed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uniweb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121B avenue Tolosane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramonville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05 34 31 51 76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">postuler sur leur site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recherche internet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kwalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 rue Saint-Hilaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact@kwalt-digital.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06 11 32 23 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">envoyer mail/ appeler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34 rue du Languedoc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact@advency.fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05 82 95 81 39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">envoyer mail / appeler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digeek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 boulevard de Strasbourg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact@digeek.fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06 51 60 65 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silarhi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116 Route d'Espagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hello@silarhi.fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06 07 27 58 26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web d’impact</t>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Tél</t>
+  </si>
+  <si>
+    <t>Nom Contact</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Date RDV</t>
+  </si>
+  <si>
+    <t>Réponse</t>
+  </si>
+  <si>
+    <t>Relance</t>
+  </si>
+  <si>
+    <t>Commentaire</t>
+  </si>
+  <si>
+    <t>Recherche</t>
+  </si>
+  <si>
+    <t>Cap Gemini</t>
+  </si>
+  <si>
+    <t>109 avenue du Général Eisenhower</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>à appeler</t>
+  </si>
+  <si>
+    <t>winzana</t>
+  </si>
+  <si>
+    <t>contact@winzana.com</t>
+  </si>
+  <si>
+    <t>candidater sur le site</t>
+  </si>
+  <si>
+    <t>makina corpus</t>
+  </si>
+  <si>
+    <t>52 Rue Jacques Babinet</t>
+  </si>
+  <si>
+    <t>contact@makina-corpus.com</t>
+  </si>
+  <si>
+    <t>Non, que bac+5</t>
+  </si>
+  <si>
+    <t>à appeler/ à voir, offre sur aideostage</t>
+  </si>
+  <si>
+    <t>web atrio</t>
+  </si>
+  <si>
+    <t>2 rue Marcel Daret</t>
+  </si>
+  <si>
+    <t>Blagnac</t>
+  </si>
+  <si>
+    <t>iwit systems</t>
+  </si>
+  <si>
+    <t>32 rue de Metz</t>
+  </si>
+  <si>
+    <t>contact@iwit-systems.fr</t>
+  </si>
+  <si>
+    <t>05 61 47 70 47</t>
+  </si>
+  <si>
+    <t>à appeler/ envoyer mail</t>
+  </si>
+  <si>
+    <t>Offre stage (indeed)</t>
+  </si>
+  <si>
+    <t>Uniweb</t>
+  </si>
+  <si>
+    <t>121B avenue Tolosane</t>
+  </si>
+  <si>
+    <t>Ramonville</t>
+  </si>
+  <si>
+    <t>05 34 31 51 76</t>
+  </si>
+  <si>
+    <t>postuler sur leur site</t>
+  </si>
+  <si>
+    <t>Recherche internet</t>
+  </si>
+  <si>
+    <t>Kwalt</t>
+  </si>
+  <si>
+    <t>15 rue Saint-Hilaire</t>
+  </si>
+  <si>
+    <t>contact@kwalt-digital.com</t>
+  </si>
+  <si>
+    <t>06 11 32 23 05</t>
+  </si>
+  <si>
+    <t>envoyer mail/ appeler</t>
+  </si>
+  <si>
+    <t>Advency</t>
+  </si>
+  <si>
+    <t>34 rue du Languedoc</t>
+  </si>
+  <si>
+    <t>contact@advency.fr</t>
+  </si>
+  <si>
+    <t>05 82 95 81 39</t>
+  </si>
+  <si>
+    <t>envoyer mail / appeler</t>
+  </si>
+  <si>
+    <t>Digeek</t>
+  </si>
+  <si>
+    <t>29 boulevard de Strasbourg</t>
+  </si>
+  <si>
+    <t>contact@digeek.fr</t>
+  </si>
+  <si>
+    <t>06 51 60 65 23</t>
+  </si>
+  <si>
+    <t>Silarhi</t>
+  </si>
+  <si>
+    <t>116 Route d'Espagne</t>
+  </si>
+  <si>
+    <t>hello@silarhi.fr</t>
+  </si>
+  <si>
+    <t>06 07 27 58 26</t>
+  </si>
+  <si>
+    <t>Web d’impact</t>
   </si>
   <si>
     <t xml:space="preserve">	
@@ -210,19 +214,19 @@
     <t xml:space="preserve">Toulouse </t>
   </si>
   <si>
-    <t xml:space="preserve">contact@webdimpact.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c&amp;d creation</t>
+    <t>contact@webdimpact.com</t>
+  </si>
+  <si>
+    <t>c&amp;d creation</t>
   </si>
   <si>
     <t xml:space="preserve">contact@cndcreation.com </t>
   </si>
   <si>
-    <t xml:space="preserve">06 88 72 05 79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syril digital</t>
+    <t>06 88 72 05 79</t>
+  </si>
+  <si>
+    <t>Syril digital</t>
   </si>
   <si>
     <t xml:space="preserve">306 Rte de Seysses </t>
@@ -231,10 +235,10 @@
     <t xml:space="preserve">contact@syril.fr </t>
   </si>
   <si>
-    <t xml:space="preserve">07 49 76 36 86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3w consult</t>
+    <t>07 49 76 36 86</t>
+  </si>
+  <si>
+    <t>3w consult</t>
   </si>
   <si>
     <t xml:space="preserve">15 place Wilson </t>
@@ -261,53 +265,53 @@
     <t xml:space="preserve">Usualcom </t>
   </si>
   <si>
-    <t xml:space="preserve">hydro</t>
+    <t>hydro</t>
   </si>
   <si>
     <t xml:space="preserve">amandine.danflous@hydro.com </t>
   </si>
   <si>
-    <t xml:space="preserve">envoyer mail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alteia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Labège</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s</t>
+    <t>envoyer mail</t>
+  </si>
+  <si>
+    <t>Alteia</t>
+  </si>
+  <si>
+    <t>Labège</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>premier mail envoyé 24/01</t>
+  </si>
+  <si>
+    <t>CMS</t>
+  </si>
+  <si>
+    <t>JS, html css, php mysql et symfony</t>
+  </si>
+  <si>
+    <t>cms</t>
+  </si>
+  <si>
+    <t>symfony, react js, vue.js, js, angular</t>
+  </si>
+  <si>
+    <t>symfony php, freelance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -338,7 +342,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -359,7 +363,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -367,7 +371,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -396,7 +400,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="13"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -425,213 +429,159 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="4">
+    <cellStyle name="Excel Built-in Accent2" xfId="3"/>
+    <cellStyle name="Excel Built-in Good" xfId="2"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Good" xfId="21"/>
-    <cellStyle name="Excel Built-in Accent2" xfId="22"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -690,60 +640,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -775,7 +741,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -799,7 +765,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -859,36 +825,35 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:O61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="20.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="7" style="0" width="20.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="33.2"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="4" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" customWidth="1"/>
+    <col min="7" max="12" width="20.42578125" customWidth="1"/>
+    <col min="13" max="14" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -931,8 +896,8 @@
       </c>
       <c r="O1" s="5"/>
     </row>
-    <row r="2" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+    <row r="2" spans="1:18" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -941,28 +906,30 @@
       <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="8">
         <v>31100</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="8"/>
-      <c r="G2" s="8" t="n">
+      <c r="G2" s="8">
         <v>582282501</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="K2" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+    <row r="3" spans="1:18" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -985,8 +952,8 @@
       </c>
       <c r="N3" s="12"/>
     </row>
-    <row r="4" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+    <row r="4" spans="1:18" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -995,7 +962,7 @@
       <c r="C4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="8">
         <v>31100</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -1004,7 +971,7 @@
       <c r="F4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="8">
         <v>970332150</v>
       </c>
       <c r="H4" s="8"/>
@@ -1019,8 +986,8 @@
       </c>
       <c r="N4" s="12"/>
     </row>
-    <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="n">
+    <row r="5" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1029,7 +996,7 @@
       <c r="C5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="8">
         <v>31700</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -1044,9 +1011,12 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="17"/>
-    </row>
-    <row r="6" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="n">
+      <c r="O5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1055,7 +1025,7 @@
       <c r="C6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="8">
         <v>31000</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -1078,9 +1048,15 @@
       <c r="N6" s="17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="n">
+      <c r="O6" t="s">
+        <v>84</v>
+      </c>
+      <c r="R6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1089,7 +1065,7 @@
       <c r="C7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="8">
         <v>31520</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -1110,9 +1086,12 @@
       <c r="N7" s="17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="n">
+      <c r="R7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -1121,7 +1100,7 @@
       <c r="C8" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="19" t="n">
+      <c r="D8" s="19">
         <v>31000</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -1144,9 +1123,12 @@
       <c r="N8" s="17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="n">
+      <c r="R8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
       <c r="B9" s="18" t="s">
@@ -1155,7 +1137,7 @@
       <c r="C9" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="19" t="n">
+      <c r="D9" s="19">
         <v>31000</v>
       </c>
       <c r="E9" s="19" t="s">
@@ -1178,9 +1160,12 @@
       <c r="N9" s="17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="n">
+      <c r="R9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -1189,7 +1174,7 @@
       <c r="C10" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="19" t="n">
+      <c r="D10" s="19">
         <v>31000</v>
       </c>
       <c r="E10" s="19" t="s">
@@ -1212,9 +1197,12 @@
       <c r="N10" s="17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="n">
+      <c r="R10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -1223,7 +1211,7 @@
       <c r="C11" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="19" t="n">
+      <c r="D11" s="19">
         <v>31100</v>
       </c>
       <c r="E11" s="19" t="s">
@@ -1238,7 +1226,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
+      <c r="K11" s="8"/>
       <c r="L11" s="21"/>
       <c r="M11" s="19" t="s">
         <v>49</v>
@@ -1246,9 +1234,12 @@
       <c r="N11" s="17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="n">
+      <c r="R11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -1257,7 +1248,7 @@
       <c r="C12" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="19" t="n">
+      <c r="D12" s="19">
         <v>31500</v>
       </c>
       <c r="E12" s="23" t="s">
@@ -1279,15 +1270,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="n">
+    <row r="13" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>62</v>
       </c>
       <c r="C13" s="19"/>
-      <c r="D13" s="19" t="n">
+      <c r="D13" s="19">
         <v>31200</v>
       </c>
       <c r="E13" s="19" t="s">
@@ -1311,8 +1302,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="n">
+    <row r="14" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -1321,7 +1312,7 @@
       <c r="C14" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="19" t="n">
+      <c r="D14" s="19">
         <v>31100</v>
       </c>
       <c r="E14" s="19" t="s">
@@ -1345,8 +1336,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="n">
+    <row r="15" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
@@ -1355,7 +1346,7 @@
       <c r="C15" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="19" t="n">
+      <c r="D15" s="19">
         <v>31000</v>
       </c>
       <c r="E15" s="19" t="s">
@@ -1379,8 +1370,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="n">
+    <row r="16" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
         <v>15</v>
       </c>
       <c r="B16" s="25" t="s">
@@ -1401,8 +1392,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="n">
+    <row r="17" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
         <v>16</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -1423,8 +1414,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="n">
+    <row r="18" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
         <v>17</v>
       </c>
       <c r="B18" s="25" t="s">
@@ -1445,8 +1436,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="n">
+    <row r="19" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
         <v>18</v>
       </c>
       <c r="B19" s="25" t="s">
@@ -1467,8 +1458,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="n">
+    <row r="20" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
         <v>19</v>
       </c>
       <c r="B20" s="25" t="s">
@@ -1489,15 +1480,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="n">
+    <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
         <v>20</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>78</v>
       </c>
       <c r="C21" s="19"/>
-      <c r="D21" s="19" t="n">
+      <c r="D21" s="19">
         <v>31037</v>
       </c>
       <c r="E21" s="19" t="s">
@@ -1519,15 +1510,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="n">
+    <row r="22" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
         <v>21</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>81</v>
       </c>
       <c r="C22" s="19"/>
-      <c r="D22" s="19" t="n">
+      <c r="D22" s="19">
         <v>31670</v>
       </c>
       <c r="E22" s="19" t="s">
@@ -1545,8 +1536,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="26" t="n">
+    <row r="23" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="26">
         <v>22</v>
       </c>
       <c r="B23" s="27"/>
@@ -1563,8 +1554,8 @@
       <c r="M23" s="27"/>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="26" t="n">
+    <row r="24" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="26">
         <v>23</v>
       </c>
       <c r="B24" s="27"/>
@@ -1581,8 +1572,8 @@
       <c r="M24" s="27"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="26" t="n">
+    <row r="25" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="26">
         <v>24</v>
       </c>
       <c r="B25" s="27"/>
@@ -1599,8 +1590,8 @@
       <c r="M25" s="27"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="26" t="n">
+    <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="26">
         <v>25</v>
       </c>
       <c r="B26" s="27"/>
@@ -1617,8 +1608,8 @@
       <c r="M26" s="27"/>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="26" t="n">
+    <row r="27" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="26">
         <v>26</v>
       </c>
       <c r="B27" s="27"/>
@@ -1635,8 +1626,8 @@
       <c r="M27" s="27"/>
       <c r="N27" s="5"/>
     </row>
-    <row r="28" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="26" t="n">
+    <row r="28" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="26">
         <v>27</v>
       </c>
       <c r="B28" s="27"/>
@@ -1653,8 +1644,8 @@
       <c r="M28" s="27"/>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="26" t="n">
+    <row r="29" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="26">
         <v>28</v>
       </c>
       <c r="B29" s="27"/>
@@ -1671,8 +1662,8 @@
       <c r="M29" s="27"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="26" t="n">
+    <row r="30" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="26">
         <v>29</v>
       </c>
       <c r="B30" s="27"/>
@@ -1689,8 +1680,8 @@
       <c r="M30" s="27"/>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="26" t="n">
+    <row r="31" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="26">
         <v>30</v>
       </c>
       <c r="B31" s="30"/>
@@ -1707,8 +1698,8 @@
       <c r="M31" s="30"/>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="26" t="n">
+    <row r="32" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="26">
         <v>31</v>
       </c>
       <c r="B32" s="30"/>
@@ -1724,8 +1715,8 @@
       <c r="L32" s="30"/>
       <c r="M32" s="30"/>
     </row>
-    <row r="33" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="26" t="n">
+    <row r="33" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="26">
         <v>32</v>
       </c>
       <c r="B33" s="30"/>
@@ -1741,8 +1732,8 @@
       <c r="L33" s="30"/>
       <c r="M33" s="30"/>
     </row>
-    <row r="34" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="26" t="n">
+    <row r="34" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="26">
         <v>33</v>
       </c>
       <c r="B34" s="30"/>
@@ -1758,8 +1749,8 @@
       <c r="L34" s="30"/>
       <c r="M34" s="30"/>
     </row>
-    <row r="35" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="26" t="n">
+    <row r="35" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="26">
         <v>34</v>
       </c>
       <c r="B35" s="30"/>
@@ -1775,8 +1766,8 @@
       <c r="L35" s="30"/>
       <c r="M35" s="30"/>
     </row>
-    <row r="36" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="26" t="n">
+    <row r="36" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="26">
         <v>35</v>
       </c>
       <c r="B36" s="30"/>
@@ -1792,8 +1783,8 @@
       <c r="L36" s="30"/>
       <c r="M36" s="30"/>
     </row>
-    <row r="37" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="26" t="n">
+    <row r="37" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="26">
         <v>36</v>
       </c>
       <c r="B37" s="30"/>
@@ -1809,8 +1800,8 @@
       <c r="L37" s="30"/>
       <c r="M37" s="30"/>
     </row>
-    <row r="38" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="26" t="n">
+    <row r="38" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="26">
         <v>37</v>
       </c>
       <c r="B38" s="30"/>
@@ -1826,8 +1817,8 @@
       <c r="L38" s="30"/>
       <c r="M38" s="30"/>
     </row>
-    <row r="39" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="26" t="n">
+    <row r="39" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="26">
         <v>38</v>
       </c>
       <c r="B39" s="30"/>
@@ -1843,8 +1834,8 @@
       <c r="L39" s="30"/>
       <c r="M39" s="30"/>
     </row>
-    <row r="40" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="26" t="n">
+    <row r="40" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="26">
         <v>39</v>
       </c>
       <c r="B40" s="30"/>
@@ -1860,8 +1851,8 @@
       <c r="L40" s="30"/>
       <c r="M40" s="30"/>
     </row>
-    <row r="41" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="26" t="n">
+    <row r="41" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="26">
         <v>40</v>
       </c>
       <c r="B41" s="30"/>
@@ -1877,8 +1868,8 @@
       <c r="L41" s="30"/>
       <c r="M41" s="30"/>
     </row>
-    <row r="42" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="26" t="n">
+    <row r="42" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="26">
         <v>41</v>
       </c>
       <c r="B42" s="30"/>
@@ -1894,8 +1885,8 @@
       <c r="L42" s="30"/>
       <c r="M42" s="30"/>
     </row>
-    <row r="43" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="26" t="n">
+    <row r="43" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="26">
         <v>42</v>
       </c>
       <c r="B43" s="30"/>
@@ -1911,8 +1902,8 @@
       <c r="L43" s="30"/>
       <c r="M43" s="30"/>
     </row>
-    <row r="44" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="26" t="n">
+    <row r="44" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="26">
         <v>43</v>
       </c>
       <c r="B44" s="30"/>
@@ -1928,8 +1919,8 @@
       <c r="L44" s="30"/>
       <c r="M44" s="30"/>
     </row>
-    <row r="45" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="26" t="n">
+    <row r="45" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="26">
         <v>44</v>
       </c>
       <c r="B45" s="30"/>
@@ -1945,8 +1936,8 @@
       <c r="L45" s="30"/>
       <c r="M45" s="30"/>
     </row>
-    <row r="46" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="26" t="n">
+    <row r="46" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="26">
         <v>45</v>
       </c>
       <c r="B46" s="30"/>
@@ -1962,8 +1953,8 @@
       <c r="L46" s="30"/>
       <c r="M46" s="30"/>
     </row>
-    <row r="47" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="26" t="n">
+    <row r="47" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="26">
         <v>46</v>
       </c>
       <c r="B47" s="30"/>
@@ -1979,8 +1970,8 @@
       <c r="L47" s="30"/>
       <c r="M47" s="30"/>
     </row>
-    <row r="48" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="26" t="n">
+    <row r="48" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="26">
         <v>47</v>
       </c>
       <c r="B48" s="30"/>
@@ -1996,8 +1987,8 @@
       <c r="L48" s="30"/>
       <c r="M48" s="30"/>
     </row>
-    <row r="49" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="26" t="n">
+    <row r="49" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="26">
         <v>48</v>
       </c>
       <c r="B49" s="30"/>
@@ -2013,8 +2004,8 @@
       <c r="L49" s="30"/>
       <c r="M49" s="30"/>
     </row>
-    <row r="50" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="26" t="n">
+    <row r="50" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="26">
         <v>49</v>
       </c>
       <c r="B50" s="30"/>
@@ -2030,8 +2021,8 @@
       <c r="L50" s="30"/>
       <c r="M50" s="30"/>
     </row>
-    <row r="51" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="26" t="n">
+    <row r="51" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="26">
         <v>50</v>
       </c>
       <c r="B51" s="30"/>
@@ -2047,8 +2038,8 @@
       <c r="L51" s="30"/>
       <c r="M51" s="30"/>
     </row>
-    <row r="52" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="26" t="n">
+    <row r="52" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="26">
         <v>51</v>
       </c>
       <c r="B52" s="30"/>
@@ -2064,8 +2055,8 @@
       <c r="L52" s="30"/>
       <c r="M52" s="30"/>
     </row>
-    <row r="53" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="26" t="n">
+    <row r="53" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="26">
         <v>52</v>
       </c>
       <c r="B53" s="30"/>
@@ -2081,8 +2072,8 @@
       <c r="L53" s="30"/>
       <c r="M53" s="30"/>
     </row>
-    <row r="54" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="26" t="n">
+    <row r="54" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="26">
         <v>53</v>
       </c>
       <c r="B54" s="30"/>
@@ -2098,8 +2089,8 @@
       <c r="L54" s="30"/>
       <c r="M54" s="30"/>
     </row>
-    <row r="55" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="26" t="n">
+    <row r="55" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="26">
         <v>54</v>
       </c>
       <c r="B55" s="30"/>
@@ -2115,8 +2106,8 @@
       <c r="L55" s="30"/>
       <c r="M55" s="30"/>
     </row>
-    <row r="56" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="26" t="n">
+    <row r="56" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="26">
         <v>55</v>
       </c>
       <c r="B56" s="30"/>
@@ -2132,8 +2123,8 @@
       <c r="L56" s="30"/>
       <c r="M56" s="30"/>
     </row>
-    <row r="57" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="26" t="n">
+    <row r="57" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="26">
         <v>56</v>
       </c>
       <c r="B57" s="30"/>
@@ -2148,12 +2139,12 @@
       <c r="K57" s="30"/>
       <c r="L57" s="30"/>
       <c r="M57" s="30"/>
-      <c r="N57" s="0" t="s">
+      <c r="N57" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="26" t="n">
+    <row r="58" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="26">
         <v>57</v>
       </c>
       <c r="B58" s="30"/>
@@ -2169,8 +2160,8 @@
       <c r="L58" s="30"/>
       <c r="M58" s="30"/>
     </row>
-    <row r="59" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="26" t="n">
+    <row r="59" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="26">
         <v>58</v>
       </c>
       <c r="B59" s="30"/>
@@ -2186,8 +2177,8 @@
       <c r="L59" s="30"/>
       <c r="M59" s="30"/>
     </row>
-    <row r="60" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="26" t="n">
+    <row r="60" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="26">
         <v>59</v>
       </c>
       <c r="B60" s="30"/>
@@ -2203,8 +2194,8 @@
       <c r="L60" s="30"/>
       <c r="M60" s="30"/>
     </row>
-    <row r="61" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="26" t="n">
+    <row r="61" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="26">
         <v>60</v>
       </c>
       <c r="B61" s="30"/>
@@ -2222,48 +2213,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="contact@winzana.com"/>
-    <hyperlink ref="F4" r:id="rId2" display="contact@makina-corpus.com"/>
-    <hyperlink ref="F6" r:id="rId3" display="contact@iwit-systems.fr"/>
-    <hyperlink ref="F8" r:id="rId4" display="contact@kwalt-digital.com"/>
-    <hyperlink ref="F9" r:id="rId5" display="contact@advency.fr"/>
-    <hyperlink ref="F10" r:id="rId6" display="contact@digeek.fr"/>
-    <hyperlink ref="F11" r:id="rId7" display="hello@silarhi.fr"/>
-    <hyperlink ref="F12" r:id="rId8" display="contact@webdimpact.com"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="F6" r:id="rId3"/>
+    <hyperlink ref="F8" r:id="rId4"/>
+    <hyperlink ref="F9" r:id="rId5"/>
+    <hyperlink ref="F10" r:id="rId6"/>
+    <hyperlink ref="F11" r:id="rId7"/>
+    <hyperlink ref="F12" r:id="rId8"/>
     <hyperlink ref="F13" r:id="rId9" display="contact@cndcreation"/>
     <hyperlink ref="F14" r:id="rId10" display="contact@syril.fr"/>
     <hyperlink ref="F15" r:id="rId11" display="agence@3wconsult.com"/>
     <hyperlink ref="G15" r:id="rId12" display="06 02 73 76 03"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="47" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" scale="47" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>